--- a/SCP-UAT/.Temp/Output.xlsx
+++ b/SCP-UAT/.Temp/Output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://allscriptshealthcare-my.sharepoint.com/personal/bhuvan_chandrak_allscripts_com/Documents/SCP/.Temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhukoorm\Documents\SCP_ENV\UAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{0F66295A-4781-4D4F-963F-E094B047E684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9867A50F-F19E-4E03-A5BE-8CA727B9E6C7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A90135-4CE2-4B9E-96DE-6E70A725349A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
@@ -715,16 +715,16 @@
   </sheetPr>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -738,7 +738,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -750,7 +750,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -762,7 +762,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -774,7 +774,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -786,7 +786,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -798,7 +798,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -810,7 +810,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -822,7 +822,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -834,7 +834,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -846,7 +846,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -858,7 +858,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -870,7 +870,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -882,7 +882,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -894,7 +894,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -906,7 +906,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -918,7 +918,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -930,7 +930,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -943,7 +943,7 @@
       <c r="J18" s="3"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -955,7 +955,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -967,7 +967,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -979,7 +979,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -991,7 +991,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1003,7 +1003,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1015,7 +1015,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1027,7 +1027,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1039,7 +1039,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1051,7 +1051,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1063,7 +1063,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1075,7 +1075,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1087,7 +1087,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1099,7 +1099,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1111,7 +1111,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1123,7 +1123,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1135,7 +1135,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1147,7 +1147,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1159,7 +1159,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1171,7 +1171,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1183,7 +1183,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1195,7 +1195,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1207,7 +1207,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1219,7 +1219,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1231,7 +1231,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1243,7 +1243,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1255,7 +1255,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1279,19 +1279,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED39B7C-954D-4C23-85EF-E84E198C93C6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1319,7 +1322,7 @@
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1345,7 +1348,7 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1371,7 +1374,7 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1397,7 +1400,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1423,7 +1426,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1435,7 +1438,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1447,7 +1450,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1460,7 +1463,7 @@
       <c r="J8" s="4"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1472,7 +1475,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1484,7 +1487,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1496,7 +1499,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1508,7 +1511,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1520,7 +1523,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1532,7 +1535,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1544,7 +1547,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1556,7 +1559,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1568,7 +1571,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1580,7 +1583,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1592,7 +1595,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1604,7 +1607,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1616,7 +1619,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1628,7 +1631,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1640,7 +1643,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1652,7 +1655,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1664,7 +1667,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1676,7 +1679,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1688,7 +1691,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1700,7 +1703,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1712,7 +1715,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1724,7 +1727,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1736,7 +1739,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1748,7 +1751,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1760,7 +1763,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1772,7 +1775,7 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1784,7 +1787,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1796,7 +1799,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1808,7 +1811,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1820,8 +1823,8 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1831,7 +1834,7 @@
     <mergeCell ref="K1:X5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>